--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_128.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_128.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d76793-Reviews-Comfort_Inn_Near_Old_Town_Pasadena_in_Eagle_Rock_CA-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>548</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Near-Old-Town-Pasadena-In-Eagle-Rock.h9229.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_128.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_128.xlsx
@@ -6927,7 +6927,7 @@
         <v>3951</v>
       </c>
       <c r="B2" t="n">
-        <v>131234</v>
+        <v>161992</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6992,7 +6992,7 @@
         <v>3951</v>
       </c>
       <c r="B3" t="n">
-        <v>131235</v>
+        <v>161993</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -7057,7 +7057,7 @@
         <v>3951</v>
       </c>
       <c r="B4" t="n">
-        <v>131236</v>
+        <v>161994</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -7122,7 +7122,7 @@
         <v>3951</v>
       </c>
       <c r="B5" t="n">
-        <v>131237</v>
+        <v>161995</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -7191,7 +7191,7 @@
         <v>3951</v>
       </c>
       <c r="B6" t="n">
-        <v>131238</v>
+        <v>161996</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -7256,7 +7256,7 @@
         <v>3951</v>
       </c>
       <c r="B7" t="n">
-        <v>131239</v>
+        <v>161997</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -7325,7 +7325,7 @@
         <v>3951</v>
       </c>
       <c r="B8" t="n">
-        <v>131240</v>
+        <v>161998</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -7390,7 +7390,7 @@
         <v>3951</v>
       </c>
       <c r="B9" t="n">
-        <v>131241</v>
+        <v>161999</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -7455,7 +7455,7 @@
         <v>3951</v>
       </c>
       <c r="B10" t="n">
-        <v>131242</v>
+        <v>162000</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -7516,7 +7516,7 @@
         <v>3951</v>
       </c>
       <c r="B11" t="n">
-        <v>131243</v>
+        <v>162001</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
@@ -7587,7 +7587,7 @@
         <v>3951</v>
       </c>
       <c r="B12" t="n">
-        <v>131244</v>
+        <v>162002</v>
       </c>
       <c r="C12" t="s">
         <v>136</v>
@@ -7725,7 +7725,7 @@
         <v>3951</v>
       </c>
       <c r="B14" t="n">
-        <v>131245</v>
+        <v>162003</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -7999,7 +7999,7 @@
         <v>3951</v>
       </c>
       <c r="B18" t="n">
-        <v>131246</v>
+        <v>162004</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
@@ -8070,7 +8070,7 @@
         <v>3951</v>
       </c>
       <c r="B19" t="n">
-        <v>131247</v>
+        <v>162005</v>
       </c>
       <c r="C19" t="s">
         <v>194</v>
@@ -8135,7 +8135,7 @@
         <v>3951</v>
       </c>
       <c r="B20" t="n">
-        <v>131248</v>
+        <v>162006</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -8206,7 +8206,7 @@
         <v>3951</v>
       </c>
       <c r="B21" t="n">
-        <v>131249</v>
+        <v>162007</v>
       </c>
       <c r="C21" t="s">
         <v>210</v>
@@ -8275,7 +8275,7 @@
         <v>3951</v>
       </c>
       <c r="B22" t="n">
-        <v>131250</v>
+        <v>162008</v>
       </c>
       <c r="C22" t="s">
         <v>217</v>
@@ -8346,7 +8346,7 @@
         <v>3951</v>
       </c>
       <c r="B23" t="n">
-        <v>131251</v>
+        <v>162009</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
@@ -8411,7 +8411,7 @@
         <v>3951</v>
       </c>
       <c r="B24" t="n">
-        <v>131252</v>
+        <v>162010</v>
       </c>
       <c r="C24" t="s">
         <v>233</v>
@@ -8482,7 +8482,7 @@
         <v>3951</v>
       </c>
       <c r="B25" t="n">
-        <v>131253</v>
+        <v>162011</v>
       </c>
       <c r="C25" t="s">
         <v>243</v>
@@ -8695,7 +8695,7 @@
         <v>3951</v>
       </c>
       <c r="B28" t="n">
-        <v>131254</v>
+        <v>162012</v>
       </c>
       <c r="C28" t="s">
         <v>269</v>
@@ -8971,7 +8971,7 @@
         <v>3951</v>
       </c>
       <c r="B32" t="n">
-        <v>131255</v>
+        <v>162013</v>
       </c>
       <c r="C32" t="s">
         <v>298</v>
@@ -9036,7 +9036,7 @@
         <v>3951</v>
       </c>
       <c r="B33" t="n">
-        <v>131256</v>
+        <v>162014</v>
       </c>
       <c r="C33" t="s">
         <v>306</v>
@@ -9101,7 +9101,7 @@
         <v>3951</v>
       </c>
       <c r="B34" t="n">
-        <v>131257</v>
+        <v>162015</v>
       </c>
       <c r="C34" t="s">
         <v>316</v>
@@ -9241,7 +9241,7 @@
         <v>3951</v>
       </c>
       <c r="B36" t="n">
-        <v>131258</v>
+        <v>162016</v>
       </c>
       <c r="C36" t="s">
         <v>332</v>
@@ -9377,7 +9377,7 @@
         <v>3951</v>
       </c>
       <c r="B38" t="n">
-        <v>131259</v>
+        <v>162017</v>
       </c>
       <c r="C38" t="s">
         <v>346</v>
@@ -9446,7 +9446,7 @@
         <v>3951</v>
       </c>
       <c r="B39" t="n">
-        <v>131260</v>
+        <v>162018</v>
       </c>
       <c r="C39" t="s">
         <v>354</v>
@@ -9511,7 +9511,7 @@
         <v>3951</v>
       </c>
       <c r="B40" t="n">
-        <v>131261</v>
+        <v>162019</v>
       </c>
       <c r="C40" t="s">
         <v>361</v>
@@ -9576,7 +9576,7 @@
         <v>3951</v>
       </c>
       <c r="B41" t="n">
-        <v>131262</v>
+        <v>162020</v>
       </c>
       <c r="C41" t="s">
         <v>368</v>
@@ -9641,7 +9641,7 @@
         <v>3951</v>
       </c>
       <c r="B42" t="n">
-        <v>131263</v>
+        <v>162021</v>
       </c>
       <c r="C42" t="s">
         <v>376</v>
@@ -9706,7 +9706,7 @@
         <v>3951</v>
       </c>
       <c r="B43" t="n">
-        <v>131264</v>
+        <v>162022</v>
       </c>
       <c r="C43" t="s">
         <v>383</v>
@@ -9771,7 +9771,7 @@
         <v>3951</v>
       </c>
       <c r="B44" t="n">
-        <v>131265</v>
+        <v>162023</v>
       </c>
       <c r="C44" t="s">
         <v>391</v>
@@ -9842,7 +9842,7 @@
         <v>3951</v>
       </c>
       <c r="B45" t="n">
-        <v>131266</v>
+        <v>162024</v>
       </c>
       <c r="C45" t="s">
         <v>398</v>
@@ -9907,7 +9907,7 @@
         <v>3951</v>
       </c>
       <c r="B46" t="n">
-        <v>131267</v>
+        <v>162025</v>
       </c>
       <c r="C46" t="s">
         <v>405</v>
@@ -10037,7 +10037,7 @@
         <v>3951</v>
       </c>
       <c r="B48" t="n">
-        <v>131268</v>
+        <v>162026</v>
       </c>
       <c r="C48" t="s">
         <v>420</v>
@@ -10102,7 +10102,7 @@
         <v>3951</v>
       </c>
       <c r="B49" t="n">
-        <v>131269</v>
+        <v>162027</v>
       </c>
       <c r="C49" t="s">
         <v>426</v>
@@ -10173,7 +10173,7 @@
         <v>3951</v>
       </c>
       <c r="B50" t="n">
-        <v>131270</v>
+        <v>162028</v>
       </c>
       <c r="C50" t="s">
         <v>433</v>
@@ -10238,7 +10238,7 @@
         <v>3951</v>
       </c>
       <c r="B51" t="n">
-        <v>131271</v>
+        <v>162029</v>
       </c>
       <c r="C51" t="s">
         <v>440</v>
@@ -10303,7 +10303,7 @@
         <v>3951</v>
       </c>
       <c r="B52" t="n">
-        <v>131272</v>
+        <v>162030</v>
       </c>
       <c r="C52" t="s">
         <v>446</v>
@@ -10368,7 +10368,7 @@
         <v>3951</v>
       </c>
       <c r="B53" t="n">
-        <v>131273</v>
+        <v>162031</v>
       </c>
       <c r="C53" t="s">
         <v>453</v>
@@ -10506,7 +10506,7 @@
         <v>3951</v>
       </c>
       <c r="B55" t="n">
-        <v>131274</v>
+        <v>162032</v>
       </c>
       <c r="C55" t="s">
         <v>472</v>
@@ -10571,7 +10571,7 @@
         <v>3951</v>
       </c>
       <c r="B56" t="n">
-        <v>131275</v>
+        <v>162033</v>
       </c>
       <c r="C56" t="s">
         <v>481</v>
@@ -10642,7 +10642,7 @@
         <v>3951</v>
       </c>
       <c r="B57" t="n">
-        <v>131276</v>
+        <v>162034</v>
       </c>
       <c r="C57" t="s">
         <v>489</v>
@@ -10711,7 +10711,7 @@
         <v>3951</v>
       </c>
       <c r="B58" t="n">
-        <v>131277</v>
+        <v>162035</v>
       </c>
       <c r="C58" t="s">
         <v>496</v>
@@ -10780,7 +10780,7 @@
         <v>3951</v>
       </c>
       <c r="B59" t="n">
-        <v>131278</v>
+        <v>162036</v>
       </c>
       <c r="C59" t="s">
         <v>503</v>
@@ -10926,7 +10926,7 @@
         <v>3951</v>
       </c>
       <c r="B61" t="n">
-        <v>131279</v>
+        <v>162037</v>
       </c>
       <c r="C61" t="s">
         <v>520</v>
@@ -10991,7 +10991,7 @@
         <v>3951</v>
       </c>
       <c r="B62" t="n">
-        <v>131280</v>
+        <v>162038</v>
       </c>
       <c r="C62" t="s">
         <v>529</v>
@@ -11056,7 +11056,7 @@
         <v>3951</v>
       </c>
       <c r="B63" t="n">
-        <v>131281</v>
+        <v>162039</v>
       </c>
       <c r="C63" t="s">
         <v>538</v>
@@ -11127,7 +11127,7 @@
         <v>3951</v>
       </c>
       <c r="B64" t="n">
-        <v>131282</v>
+        <v>162040</v>
       </c>
       <c r="C64" t="s">
         <v>548</v>
@@ -11192,7 +11192,7 @@
         <v>3951</v>
       </c>
       <c r="B65" t="n">
-        <v>131283</v>
+        <v>162041</v>
       </c>
       <c r="C65" t="s">
         <v>555</v>
@@ -11257,7 +11257,7 @@
         <v>3951</v>
       </c>
       <c r="B66" t="n">
-        <v>131284</v>
+        <v>162042</v>
       </c>
       <c r="C66" t="s">
         <v>563</v>
@@ -11332,7 +11332,7 @@
         <v>3951</v>
       </c>
       <c r="B67" t="n">
-        <v>131285</v>
+        <v>162043</v>
       </c>
       <c r="C67" t="s">
         <v>573</v>
@@ -11407,7 +11407,7 @@
         <v>3951</v>
       </c>
       <c r="B68" t="n">
-        <v>131286</v>
+        <v>162044</v>
       </c>
       <c r="C68" t="s">
         <v>582</v>
@@ -11612,7 +11612,7 @@
         <v>3951</v>
       </c>
       <c r="B71" t="n">
-        <v>131287</v>
+        <v>162045</v>
       </c>
       <c r="C71" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>3951</v>
       </c>
       <c r="B73" t="n">
-        <v>131288</v>
+        <v>162046</v>
       </c>
       <c r="C73" t="s">
         <v>625</v>
@@ -11894,7 +11894,7 @@
         <v>3951</v>
       </c>
       <c r="B75" t="n">
-        <v>131289</v>
+        <v>162047</v>
       </c>
       <c r="C75" t="s">
         <v>642</v>
@@ -11963,7 +11963,7 @@
         <v>3951</v>
       </c>
       <c r="B76" t="n">
-        <v>131290</v>
+        <v>162048</v>
       </c>
       <c r="C76" t="s">
         <v>651</v>
@@ -12038,7 +12038,7 @@
         <v>3951</v>
       </c>
       <c r="B77" t="n">
-        <v>131291</v>
+        <v>162049</v>
       </c>
       <c r="C77" t="s">
         <v>659</v>
@@ -12113,7 +12113,7 @@
         <v>3951</v>
       </c>
       <c r="B78" t="n">
-        <v>131292</v>
+        <v>162050</v>
       </c>
       <c r="C78" t="s">
         <v>668</v>
@@ -12184,7 +12184,7 @@
         <v>3951</v>
       </c>
       <c r="B79" t="n">
-        <v>131293</v>
+        <v>162051</v>
       </c>
       <c r="C79" t="s">
         <v>675</v>
@@ -12326,7 +12326,7 @@
         <v>3951</v>
       </c>
       <c r="B81" t="n">
-        <v>131294</v>
+        <v>162052</v>
       </c>
       <c r="C81" t="s">
         <v>689</v>
@@ -12397,7 +12397,7 @@
         <v>3951</v>
       </c>
       <c r="B82" t="n">
-        <v>131295</v>
+        <v>162053</v>
       </c>
       <c r="C82" t="s">
         <v>698</v>
@@ -12748,7 +12748,7 @@
         <v>3951</v>
       </c>
       <c r="B87" t="n">
-        <v>131296</v>
+        <v>162054</v>
       </c>
       <c r="C87" t="s">
         <v>739</v>
@@ -12819,7 +12819,7 @@
         <v>3951</v>
       </c>
       <c r="B88" t="n">
-        <v>131297</v>
+        <v>162055</v>
       </c>
       <c r="C88" t="s">
         <v>746</v>
@@ -12890,7 +12890,7 @@
         <v>3951</v>
       </c>
       <c r="B89" t="n">
-        <v>131298</v>
+        <v>162056</v>
       </c>
       <c r="C89" t="s">
         <v>754</v>
@@ -13030,7 +13030,7 @@
         <v>3951</v>
       </c>
       <c r="B91" t="n">
-        <v>131299</v>
+        <v>162057</v>
       </c>
       <c r="C91" t="s">
         <v>773</v>
@@ -13095,7 +13095,7 @@
         <v>3951</v>
       </c>
       <c r="B92" t="n">
-        <v>131300</v>
+        <v>162058</v>
       </c>
       <c r="C92" t="s">
         <v>782</v>
@@ -13164,7 +13164,7 @@
         <v>3951</v>
       </c>
       <c r="B93" t="n">
-        <v>131301</v>
+        <v>162059</v>
       </c>
       <c r="C93" t="s">
         <v>789</v>
@@ -13235,7 +13235,7 @@
         <v>3951</v>
       </c>
       <c r="B94" t="n">
-        <v>131302</v>
+        <v>162060</v>
       </c>
       <c r="C94" t="s">
         <v>796</v>
@@ -13310,7 +13310,7 @@
         <v>3951</v>
       </c>
       <c r="B95" t="n">
-        <v>131303</v>
+        <v>162061</v>
       </c>
       <c r="C95" t="s">
         <v>803</v>
@@ -13375,7 +13375,7 @@
         <v>3951</v>
       </c>
       <c r="B96" t="n">
-        <v>131304</v>
+        <v>162062</v>
       </c>
       <c r="C96" t="s">
         <v>813</v>
@@ -13511,7 +13511,7 @@
         <v>3951</v>
       </c>
       <c r="B98" t="n">
-        <v>131305</v>
+        <v>162063</v>
       </c>
       <c r="C98" t="s">
         <v>832</v>
@@ -13582,7 +13582,7 @@
         <v>3951</v>
       </c>
       <c r="B99" t="n">
-        <v>131306</v>
+        <v>162064</v>
       </c>
       <c r="C99" t="s">
         <v>839</v>
@@ -13724,7 +13724,7 @@
         <v>3951</v>
       </c>
       <c r="B101" t="n">
-        <v>131307</v>
+        <v>162065</v>
       </c>
       <c r="C101" t="s">
         <v>855</v>
@@ -13795,7 +13795,7 @@
         <v>3951</v>
       </c>
       <c r="B102" t="n">
-        <v>131308</v>
+        <v>162066</v>
       </c>
       <c r="C102" t="s">
         <v>865</v>
@@ -13870,7 +13870,7 @@
         <v>3951</v>
       </c>
       <c r="B103" t="n">
-        <v>131309</v>
+        <v>162067</v>
       </c>
       <c r="C103" t="s">
         <v>875</v>
@@ -13945,7 +13945,7 @@
         <v>3951</v>
       </c>
       <c r="B104" t="n">
-        <v>131310</v>
+        <v>162068</v>
       </c>
       <c r="C104" t="s">
         <v>881</v>
@@ -14020,7 +14020,7 @@
         <v>3951</v>
       </c>
       <c r="B105" t="n">
-        <v>131311</v>
+        <v>162069</v>
       </c>
       <c r="C105" t="s">
         <v>891</v>
@@ -14095,7 +14095,7 @@
         <v>3951</v>
       </c>
       <c r="B106" t="n">
-        <v>131312</v>
+        <v>162070</v>
       </c>
       <c r="C106" t="s">
         <v>898</v>
@@ -14170,7 +14170,7 @@
         <v>3951</v>
       </c>
       <c r="B107" t="n">
-        <v>131313</v>
+        <v>162071</v>
       </c>
       <c r="C107" t="s">
         <v>905</v>
@@ -14245,7 +14245,7 @@
         <v>3951</v>
       </c>
       <c r="B108" t="n">
-        <v>131314</v>
+        <v>162072</v>
       </c>
       <c r="C108" t="s">
         <v>913</v>
@@ -14320,7 +14320,7 @@
         <v>3951</v>
       </c>
       <c r="B109" t="n">
-        <v>131315</v>
+        <v>162073</v>
       </c>
       <c r="C109" t="s">
         <v>920</v>
@@ -14470,7 +14470,7 @@
         <v>3951</v>
       </c>
       <c r="B111" t="n">
-        <v>131316</v>
+        <v>162074</v>
       </c>
       <c r="C111" t="s">
         <v>938</v>
@@ -14620,7 +14620,7 @@
         <v>3951</v>
       </c>
       <c r="B113" t="n">
-        <v>131317</v>
+        <v>162075</v>
       </c>
       <c r="C113" t="s">
         <v>954</v>
@@ -14695,7 +14695,7 @@
         <v>3951</v>
       </c>
       <c r="B114" t="n">
-        <v>131318</v>
+        <v>162076</v>
       </c>
       <c r="C114" t="s">
         <v>964</v>
@@ -14845,7 +14845,7 @@
         <v>3951</v>
       </c>
       <c r="B116" t="n">
-        <v>131319</v>
+        <v>162077</v>
       </c>
       <c r="C116" t="s">
         <v>981</v>
@@ -14985,7 +14985,7 @@
         <v>3951</v>
       </c>
       <c r="B118" t="n">
-        <v>131320</v>
+        <v>162078</v>
       </c>
       <c r="C118" t="s">
         <v>997</v>
@@ -15056,7 +15056,7 @@
         <v>3951</v>
       </c>
       <c r="B119" t="n">
-        <v>131321</v>
+        <v>162079</v>
       </c>
       <c r="C119" t="s">
         <v>1004</v>
@@ -15206,7 +15206,7 @@
         <v>3951</v>
       </c>
       <c r="B121" t="n">
-        <v>131322</v>
+        <v>162080</v>
       </c>
       <c r="C121" t="s">
         <v>1020</v>
@@ -15277,7 +15277,7 @@
         <v>3951</v>
       </c>
       <c r="B122" t="n">
-        <v>131323</v>
+        <v>162081</v>
       </c>
       <c r="C122" t="s">
         <v>1029</v>
@@ -15348,7 +15348,7 @@
         <v>3951</v>
       </c>
       <c r="B123" t="n">
-        <v>131324</v>
+        <v>162082</v>
       </c>
       <c r="C123" t="s">
         <v>1036</v>
@@ -15423,7 +15423,7 @@
         <v>3951</v>
       </c>
       <c r="B124" t="n">
-        <v>131325</v>
+        <v>162083</v>
       </c>
       <c r="C124" t="s">
         <v>1044</v>
@@ -15498,7 +15498,7 @@
         <v>3951</v>
       </c>
       <c r="B125" t="n">
-        <v>131326</v>
+        <v>162084</v>
       </c>
       <c r="C125" t="s">
         <v>1054</v>
@@ -15569,7 +15569,7 @@
         <v>3951</v>
       </c>
       <c r="B126" t="n">
-        <v>131327</v>
+        <v>162085</v>
       </c>
       <c r="C126" t="s">
         <v>1061</v>
@@ -15640,7 +15640,7 @@
         <v>3951</v>
       </c>
       <c r="B127" t="n">
-        <v>131328</v>
+        <v>162086</v>
       </c>
       <c r="C127" t="s">
         <v>1069</v>
@@ -15715,7 +15715,7 @@
         <v>3951</v>
       </c>
       <c r="B128" t="n">
-        <v>131329</v>
+        <v>162087</v>
       </c>
       <c r="C128" t="s">
         <v>1076</v>
@@ -15790,7 +15790,7 @@
         <v>3951</v>
       </c>
       <c r="B129" t="n">
-        <v>131330</v>
+        <v>162088</v>
       </c>
       <c r="C129" t="s">
         <v>1086</v>
@@ -15861,7 +15861,7 @@
         <v>3951</v>
       </c>
       <c r="B130" t="n">
-        <v>131331</v>
+        <v>162089</v>
       </c>
       <c r="C130" t="s">
         <v>1093</v>
@@ -15936,7 +15936,7 @@
         <v>3951</v>
       </c>
       <c r="B131" t="n">
-        <v>131332</v>
+        <v>162090</v>
       </c>
       <c r="C131" t="s">
         <v>1101</v>
@@ -16011,7 +16011,7 @@
         <v>3951</v>
       </c>
       <c r="B132" t="n">
-        <v>131333</v>
+        <v>162091</v>
       </c>
       <c r="C132" t="s">
         <v>1111</v>
@@ -16086,7 +16086,7 @@
         <v>3951</v>
       </c>
       <c r="B133" t="n">
-        <v>131334</v>
+        <v>162092</v>
       </c>
       <c r="C133" t="s">
         <v>1118</v>
@@ -16157,7 +16157,7 @@
         <v>3951</v>
       </c>
       <c r="B134" t="n">
-        <v>131335</v>
+        <v>162093</v>
       </c>
       <c r="C134" t="s">
         <v>1125</v>
@@ -16297,7 +16297,7 @@
         <v>3951</v>
       </c>
       <c r="B136" t="n">
-        <v>131336</v>
+        <v>162094</v>
       </c>
       <c r="C136" t="s">
         <v>1142</v>
@@ -16362,7 +16362,7 @@
         <v>3951</v>
       </c>
       <c r="B137" t="n">
-        <v>131337</v>
+        <v>162095</v>
       </c>
       <c r="C137" t="s">
         <v>1150</v>
@@ -16427,7 +16427,7 @@
         <v>3951</v>
       </c>
       <c r="B138" t="n">
-        <v>131338</v>
+        <v>162096</v>
       </c>
       <c r="C138" t="s">
         <v>1159</v>
@@ -16502,7 +16502,7 @@
         <v>3951</v>
       </c>
       <c r="B139" t="n">
-        <v>131339</v>
+        <v>162097</v>
       </c>
       <c r="C139" t="s">
         <v>1168</v>
@@ -16577,7 +16577,7 @@
         <v>3951</v>
       </c>
       <c r="B140" t="n">
-        <v>131340</v>
+        <v>162098</v>
       </c>
       <c r="C140" t="s">
         <v>1177</v>
@@ -16652,7 +16652,7 @@
         <v>3951</v>
       </c>
       <c r="B141" t="n">
-        <v>131341</v>
+        <v>162099</v>
       </c>
       <c r="C141" t="s">
         <v>1187</v>
@@ -16727,7 +16727,7 @@
         <v>3951</v>
       </c>
       <c r="B142" t="n">
-        <v>131342</v>
+        <v>162100</v>
       </c>
       <c r="C142" t="s">
         <v>1194</v>
@@ -16802,7 +16802,7 @@
         <v>3951</v>
       </c>
       <c r="B143" t="n">
-        <v>131343</v>
+        <v>162101</v>
       </c>
       <c r="C143" t="s">
         <v>1202</v>
@@ -16877,7 +16877,7 @@
         <v>3951</v>
       </c>
       <c r="B144" t="n">
-        <v>131344</v>
+        <v>162102</v>
       </c>
       <c r="C144" t="s">
         <v>1212</v>
@@ -16942,7 +16942,7 @@
         <v>3951</v>
       </c>
       <c r="B145" t="n">
-        <v>131345</v>
+        <v>162103</v>
       </c>
       <c r="C145" t="s">
         <v>1220</v>
@@ -17017,7 +17017,7 @@
         <v>3951</v>
       </c>
       <c r="B146" t="n">
-        <v>131346</v>
+        <v>162104</v>
       </c>
       <c r="C146" t="s">
         <v>1229</v>
@@ -17167,7 +17167,7 @@
         <v>3951</v>
       </c>
       <c r="B148" t="n">
-        <v>131347</v>
+        <v>162105</v>
       </c>
       <c r="C148" t="s">
         <v>1245</v>
@@ -17238,7 +17238,7 @@
         <v>3951</v>
       </c>
       <c r="B149" t="n">
-        <v>131348</v>
+        <v>162106</v>
       </c>
       <c r="C149" t="s">
         <v>1252</v>
@@ -17313,7 +17313,7 @@
         <v>3951</v>
       </c>
       <c r="B150" t="n">
-        <v>131349</v>
+        <v>162107</v>
       </c>
       <c r="C150" t="s">
         <v>1260</v>
@@ -17384,7 +17384,7 @@
         <v>3951</v>
       </c>
       <c r="B151" t="n">
-        <v>131350</v>
+        <v>162108</v>
       </c>
       <c r="C151" t="s">
         <v>1268</v>
@@ -17459,7 +17459,7 @@
         <v>3951</v>
       </c>
       <c r="B152" t="n">
-        <v>131351</v>
+        <v>162109</v>
       </c>
       <c r="C152" t="s">
         <v>1277</v>
@@ -17534,7 +17534,7 @@
         <v>3951</v>
       </c>
       <c r="B153" t="n">
-        <v>131352</v>
+        <v>162110</v>
       </c>
       <c r="C153" t="s">
         <v>1287</v>
@@ -17609,7 +17609,7 @@
         <v>3951</v>
       </c>
       <c r="B154" t="n">
-        <v>131353</v>
+        <v>162111</v>
       </c>
       <c r="C154" t="s">
         <v>1295</v>
@@ -17759,7 +17759,7 @@
         <v>3951</v>
       </c>
       <c r="B156" t="n">
-        <v>131354</v>
+        <v>162112</v>
       </c>
       <c r="C156" t="s">
         <v>1313</v>
@@ -17984,7 +17984,7 @@
         <v>3951</v>
       </c>
       <c r="B159" t="n">
-        <v>131355</v>
+        <v>162113</v>
       </c>
       <c r="C159" t="s">
         <v>1335</v>
@@ -18055,7 +18055,7 @@
         <v>3951</v>
       </c>
       <c r="B160" t="n">
-        <v>131356</v>
+        <v>162114</v>
       </c>
       <c r="C160" t="s">
         <v>1343</v>
@@ -18197,7 +18197,7 @@
         <v>3951</v>
       </c>
       <c r="B162" t="n">
-        <v>131357</v>
+        <v>162115</v>
       </c>
       <c r="C162" t="s">
         <v>1362</v>
@@ -18268,7 +18268,7 @@
         <v>3951</v>
       </c>
       <c r="B163" t="n">
-        <v>131358</v>
+        <v>162116</v>
       </c>
       <c r="C163" t="s">
         <v>1370</v>
@@ -18339,7 +18339,7 @@
         <v>3951</v>
       </c>
       <c r="B164" t="n">
-        <v>131359</v>
+        <v>162117</v>
       </c>
       <c r="C164" t="s">
         <v>1377</v>
@@ -18410,7 +18410,7 @@
         <v>3951</v>
       </c>
       <c r="B165" t="n">
-        <v>131360</v>
+        <v>162118</v>
       </c>
       <c r="C165" t="s">
         <v>1386</v>
@@ -18481,7 +18481,7 @@
         <v>3951</v>
       </c>
       <c r="B166" t="n">
-        <v>131361</v>
+        <v>162119</v>
       </c>
       <c r="C166" t="s">
         <v>1395</v>
@@ -18552,7 +18552,7 @@
         <v>3951</v>
       </c>
       <c r="B167" t="n">
-        <v>131362</v>
+        <v>162120</v>
       </c>
       <c r="C167" t="s">
         <v>1402</v>
@@ -18627,7 +18627,7 @@
         <v>3951</v>
       </c>
       <c r="B168" t="n">
-        <v>131363</v>
+        <v>162121</v>
       </c>
       <c r="C168" t="s">
         <v>1412</v>
@@ -18702,7 +18702,7 @@
         <v>3951</v>
       </c>
       <c r="B169" t="n">
-        <v>131364</v>
+        <v>162122</v>
       </c>
       <c r="C169" t="s">
         <v>1419</v>
@@ -18777,7 +18777,7 @@
         <v>3951</v>
       </c>
       <c r="B170" t="n">
-        <v>131365</v>
+        <v>162123</v>
       </c>
       <c r="C170" t="s">
         <v>1425</v>
@@ -18852,7 +18852,7 @@
         <v>3951</v>
       </c>
       <c r="B171" t="n">
-        <v>131366</v>
+        <v>162124</v>
       </c>
       <c r="C171" t="s">
         <v>1434</v>
@@ -18927,7 +18927,7 @@
         <v>3951</v>
       </c>
       <c r="B172" t="n">
-        <v>131367</v>
+        <v>162125</v>
       </c>
       <c r="C172" t="s">
         <v>1443</v>
@@ -19002,7 +19002,7 @@
         <v>3951</v>
       </c>
       <c r="B173" t="n">
-        <v>131368</v>
+        <v>162126</v>
       </c>
       <c r="C173" t="s">
         <v>1450</v>
@@ -19077,7 +19077,7 @@
         <v>3951</v>
       </c>
       <c r="B174" t="n">
-        <v>131369</v>
+        <v>162127</v>
       </c>
       <c r="C174" t="s">
         <v>1459</v>
@@ -19150,7 +19150,7 @@
         <v>3951</v>
       </c>
       <c r="B175" t="n">
-        <v>131370</v>
+        <v>162128</v>
       </c>
       <c r="C175" t="s">
         <v>1466</v>
@@ -19225,7 +19225,7 @@
         <v>3951</v>
       </c>
       <c r="B176" t="n">
-        <v>131371</v>
+        <v>162129</v>
       </c>
       <c r="C176" t="s">
         <v>1475</v>
@@ -19300,7 +19300,7 @@
         <v>3951</v>
       </c>
       <c r="B177" t="n">
-        <v>131372</v>
+        <v>162130</v>
       </c>
       <c r="C177" t="s">
         <v>1483</v>
@@ -19375,7 +19375,7 @@
         <v>3951</v>
       </c>
       <c r="B178" t="n">
-        <v>131373</v>
+        <v>162131</v>
       </c>
       <c r="C178" t="s">
         <v>1490</v>
@@ -19450,7 +19450,7 @@
         <v>3951</v>
       </c>
       <c r="B179" t="n">
-        <v>131374</v>
+        <v>162132</v>
       </c>
       <c r="C179" t="s">
         <v>1496</v>
@@ -19525,7 +19525,7 @@
         <v>3951</v>
       </c>
       <c r="B180" t="n">
-        <v>131375</v>
+        <v>162133</v>
       </c>
       <c r="C180" t="s">
         <v>1506</v>
@@ -19600,7 +19600,7 @@
         <v>3951</v>
       </c>
       <c r="B181" t="n">
-        <v>131376</v>
+        <v>162134</v>
       </c>
       <c r="C181" t="s">
         <v>1514</v>
@@ -19675,7 +19675,7 @@
         <v>3951</v>
       </c>
       <c r="B182" t="n">
-        <v>131377</v>
+        <v>162135</v>
       </c>
       <c r="C182" t="s">
         <v>1523</v>
@@ -19750,7 +19750,7 @@
         <v>3951</v>
       </c>
       <c r="B183" t="n">
-        <v>131378</v>
+        <v>162136</v>
       </c>
       <c r="C183" t="s">
         <v>1530</v>
@@ -19825,7 +19825,7 @@
         <v>3951</v>
       </c>
       <c r="B184" t="n">
-        <v>131379</v>
+        <v>162137</v>
       </c>
       <c r="C184" t="s">
         <v>1537</v>
@@ -19900,7 +19900,7 @@
         <v>3951</v>
       </c>
       <c r="B185" t="n">
-        <v>131380</v>
+        <v>162138</v>
       </c>
       <c r="C185" t="s">
         <v>1544</v>
@@ -19975,7 +19975,7 @@
         <v>3951</v>
       </c>
       <c r="B186" t="n">
-        <v>131381</v>
+        <v>162139</v>
       </c>
       <c r="C186" t="s">
         <v>1553</v>
@@ -20050,7 +20050,7 @@
         <v>3951</v>
       </c>
       <c r="B187" t="n">
-        <v>131382</v>
+        <v>162140</v>
       </c>
       <c r="C187" t="s">
         <v>1559</v>
@@ -20125,7 +20125,7 @@
         <v>3951</v>
       </c>
       <c r="B188" t="n">
-        <v>131383</v>
+        <v>162141</v>
       </c>
       <c r="C188" t="s">
         <v>1566</v>
@@ -20200,7 +20200,7 @@
         <v>3951</v>
       </c>
       <c r="B189" t="n">
-        <v>131384</v>
+        <v>131270</v>
       </c>
       <c r="C189" t="s">
         <v>1573</v>
@@ -20265,7 +20265,7 @@
         <v>3951</v>
       </c>
       <c r="B190" t="n">
-        <v>131385</v>
+        <v>162142</v>
       </c>
       <c r="C190" t="s">
         <v>1580</v>
@@ -20340,7 +20340,7 @@
         <v>3951</v>
       </c>
       <c r="B191" t="n">
-        <v>131386</v>
+        <v>162143</v>
       </c>
       <c r="C191" t="s">
         <v>1587</v>
@@ -20415,7 +20415,7 @@
         <v>3951</v>
       </c>
       <c r="B192" t="n">
-        <v>131387</v>
+        <v>162144</v>
       </c>
       <c r="C192" t="s">
         <v>1594</v>
@@ -20490,7 +20490,7 @@
         <v>3951</v>
       </c>
       <c r="B193" t="n">
-        <v>131388</v>
+        <v>162145</v>
       </c>
       <c r="C193" t="s">
         <v>1600</v>
@@ -20565,7 +20565,7 @@
         <v>3951</v>
       </c>
       <c r="B194" t="n">
-        <v>131389</v>
+        <v>162146</v>
       </c>
       <c r="C194" t="s">
         <v>1609</v>
@@ -20640,7 +20640,7 @@
         <v>3951</v>
       </c>
       <c r="B195" t="n">
-        <v>131390</v>
+        <v>162147</v>
       </c>
       <c r="C195" t="s">
         <v>1616</v>
@@ -20715,7 +20715,7 @@
         <v>3951</v>
       </c>
       <c r="B196" t="n">
-        <v>131391</v>
+        <v>162148</v>
       </c>
       <c r="C196" t="s">
         <v>1622</v>
@@ -20790,7 +20790,7 @@
         <v>3951</v>
       </c>
       <c r="B197" t="n">
-        <v>131392</v>
+        <v>162149</v>
       </c>
       <c r="C197" t="s">
         <v>1632</v>
@@ -20865,7 +20865,7 @@
         <v>3951</v>
       </c>
       <c r="B198" t="n">
-        <v>131393</v>
+        <v>162150</v>
       </c>
       <c r="C198" t="s">
         <v>1640</v>
@@ -20940,7 +20940,7 @@
         <v>3951</v>
       </c>
       <c r="B199" t="n">
-        <v>131394</v>
+        <v>162151</v>
       </c>
       <c r="C199" t="s">
         <v>1648</v>
@@ -21015,7 +21015,7 @@
         <v>3951</v>
       </c>
       <c r="B200" t="n">
-        <v>131395</v>
+        <v>162152</v>
       </c>
       <c r="C200" t="s">
         <v>1657</v>
@@ -21090,7 +21090,7 @@
         <v>3951</v>
       </c>
       <c r="B201" t="n">
-        <v>131396</v>
+        <v>162153</v>
       </c>
       <c r="C201" t="s">
         <v>1664</v>
@@ -21165,7 +21165,7 @@
         <v>3951</v>
       </c>
       <c r="B202" t="n">
-        <v>131397</v>
+        <v>162154</v>
       </c>
       <c r="C202" t="s">
         <v>1671</v>
@@ -21240,7 +21240,7 @@
         <v>3951</v>
       </c>
       <c r="B203" t="n">
-        <v>131398</v>
+        <v>162155</v>
       </c>
       <c r="C203" t="s">
         <v>1678</v>
@@ -21315,7 +21315,7 @@
         <v>3951</v>
       </c>
       <c r="B204" t="n">
-        <v>131399</v>
+        <v>162156</v>
       </c>
       <c r="C204" t="s">
         <v>1686</v>
@@ -21390,7 +21390,7 @@
         <v>3951</v>
       </c>
       <c r="B205" t="n">
-        <v>131400</v>
+        <v>162157</v>
       </c>
       <c r="C205" t="s">
         <v>1692</v>
@@ -21465,7 +21465,7 @@
         <v>3951</v>
       </c>
       <c r="B206" t="n">
-        <v>131401</v>
+        <v>162158</v>
       </c>
       <c r="C206" t="s">
         <v>1699</v>
@@ -21540,7 +21540,7 @@
         <v>3951</v>
       </c>
       <c r="B207" t="n">
-        <v>131402</v>
+        <v>162159</v>
       </c>
       <c r="C207" t="s">
         <v>1709</v>
@@ -21615,7 +21615,7 @@
         <v>3951</v>
       </c>
       <c r="B208" t="n">
-        <v>131403</v>
+        <v>162160</v>
       </c>
       <c r="C208" t="s">
         <v>1717</v>
@@ -21690,7 +21690,7 @@
         <v>3951</v>
       </c>
       <c r="B209" t="n">
-        <v>131404</v>
+        <v>162161</v>
       </c>
       <c r="C209" t="s">
         <v>1724</v>
@@ -21761,7 +21761,7 @@
         <v>3951</v>
       </c>
       <c r="B210" t="n">
-        <v>131405</v>
+        <v>162162</v>
       </c>
       <c r="C210" t="s">
         <v>1733</v>
@@ -21836,7 +21836,7 @@
         <v>3951</v>
       </c>
       <c r="B211" t="n">
-        <v>131406</v>
+        <v>162163</v>
       </c>
       <c r="C211" t="s">
         <v>1741</v>
@@ -21911,7 +21911,7 @@
         <v>3951</v>
       </c>
       <c r="B212" t="n">
-        <v>131407</v>
+        <v>162164</v>
       </c>
       <c r="C212" t="s">
         <v>1747</v>
@@ -21986,7 +21986,7 @@
         <v>3951</v>
       </c>
       <c r="B213" t="n">
-        <v>131408</v>
+        <v>162165</v>
       </c>
       <c r="C213" t="s">
         <v>1754</v>
@@ -22061,7 +22061,7 @@
         <v>3951</v>
       </c>
       <c r="B214" t="n">
-        <v>131409</v>
+        <v>162166</v>
       </c>
       <c r="C214" t="s">
         <v>1760</v>
@@ -22136,7 +22136,7 @@
         <v>3951</v>
       </c>
       <c r="B215" t="n">
-        <v>131410</v>
+        <v>162167</v>
       </c>
       <c r="C215" t="s">
         <v>1766</v>
@@ -22211,7 +22211,7 @@
         <v>3951</v>
       </c>
       <c r="B216" t="n">
-        <v>131383</v>
+        <v>131270</v>
       </c>
       <c r="C216" t="s">
         <v>1573</v>
@@ -22286,7 +22286,7 @@
         <v>3951</v>
       </c>
       <c r="B217" t="n">
-        <v>131411</v>
+        <v>162168</v>
       </c>
       <c r="C217" t="s">
         <v>1783</v>
@@ -22361,7 +22361,7 @@
         <v>3951</v>
       </c>
       <c r="B218" t="n">
-        <v>131412</v>
+        <v>162169</v>
       </c>
       <c r="C218" t="s">
         <v>1790</v>
@@ -22436,7 +22436,7 @@
         <v>3951</v>
       </c>
       <c r="B219" t="n">
-        <v>131413</v>
+        <v>162170</v>
       </c>
       <c r="C219" t="s">
         <v>1799</v>
@@ -22511,7 +22511,7 @@
         <v>3951</v>
       </c>
       <c r="B220" t="n">
-        <v>131414</v>
+        <v>162171</v>
       </c>
       <c r="C220" t="s">
         <v>1805</v>
@@ -22586,7 +22586,7 @@
         <v>3951</v>
       </c>
       <c r="B221" t="n">
-        <v>131415</v>
+        <v>162172</v>
       </c>
       <c r="C221" t="s">
         <v>1814</v>
@@ -22661,7 +22661,7 @@
         <v>3951</v>
       </c>
       <c r="B222" t="n">
-        <v>131416</v>
+        <v>162173</v>
       </c>
       <c r="C222" t="s">
         <v>1822</v>
@@ -22736,7 +22736,7 @@
         <v>3951</v>
       </c>
       <c r="B223" t="n">
-        <v>131417</v>
+        <v>162174</v>
       </c>
       <c r="C223" t="s">
         <v>1828</v>
@@ -22811,7 +22811,7 @@
         <v>3951</v>
       </c>
       <c r="B224" t="n">
-        <v>131418</v>
+        <v>162175</v>
       </c>
       <c r="C224" t="s">
         <v>1834</v>
@@ -22886,7 +22886,7 @@
         <v>3951</v>
       </c>
       <c r="B225" t="n">
-        <v>131419</v>
+        <v>162176</v>
       </c>
       <c r="C225" t="s">
         <v>1844</v>
@@ -22961,7 +22961,7 @@
         <v>3951</v>
       </c>
       <c r="B226" t="n">
-        <v>131420</v>
+        <v>162177</v>
       </c>
       <c r="C226" t="s">
         <v>1852</v>
@@ -23036,7 +23036,7 @@
         <v>3951</v>
       </c>
       <c r="B227" t="n">
-        <v>131421</v>
+        <v>162178</v>
       </c>
       <c r="C227" t="s">
         <v>1861</v>
@@ -23111,7 +23111,7 @@
         <v>3951</v>
       </c>
       <c r="B228" t="n">
-        <v>131422</v>
+        <v>162179</v>
       </c>
       <c r="C228" t="s">
         <v>1868</v>
@@ -23186,7 +23186,7 @@
         <v>3951</v>
       </c>
       <c r="B229" t="n">
-        <v>131423</v>
+        <v>162180</v>
       </c>
       <c r="C229" t="s">
         <v>1875</v>
@@ -23261,7 +23261,7 @@
         <v>3951</v>
       </c>
       <c r="B230" t="n">
-        <v>131424</v>
+        <v>162181</v>
       </c>
       <c r="C230" t="s">
         <v>1882</v>
@@ -23336,7 +23336,7 @@
         <v>3951</v>
       </c>
       <c r="B231" t="n">
-        <v>131425</v>
+        <v>162182</v>
       </c>
       <c r="C231" t="s">
         <v>1889</v>
@@ -23411,7 +23411,7 @@
         <v>3951</v>
       </c>
       <c r="B232" t="n">
-        <v>131426</v>
+        <v>162183</v>
       </c>
       <c r="C232" t="s">
         <v>1896</v>
@@ -23486,7 +23486,7 @@
         <v>3951</v>
       </c>
       <c r="B233" t="n">
-        <v>131427</v>
+        <v>162184</v>
       </c>
       <c r="C233" t="s">
         <v>1904</v>
@@ -23561,7 +23561,7 @@
         <v>3951</v>
       </c>
       <c r="B234" t="n">
-        <v>131428</v>
+        <v>162185</v>
       </c>
       <c r="C234" t="s">
         <v>1911</v>
@@ -23636,7 +23636,7 @@
         <v>3951</v>
       </c>
       <c r="B235" t="n">
-        <v>131429</v>
+        <v>162186</v>
       </c>
       <c r="C235" t="s">
         <v>1918</v>
@@ -23711,7 +23711,7 @@
         <v>3951</v>
       </c>
       <c r="B236" t="n">
-        <v>131430</v>
+        <v>162187</v>
       </c>
       <c r="C236" t="s">
         <v>1925</v>
@@ -23786,7 +23786,7 @@
         <v>3951</v>
       </c>
       <c r="B237" t="n">
-        <v>131431</v>
+        <v>162188</v>
       </c>
       <c r="C237" t="s">
         <v>1932</v>
@@ -23936,7 +23936,7 @@
         <v>3951</v>
       </c>
       <c r="B239" t="n">
-        <v>131432</v>
+        <v>162189</v>
       </c>
       <c r="C239" t="s">
         <v>1947</v>
@@ -24011,7 +24011,7 @@
         <v>3951</v>
       </c>
       <c r="B240" t="n">
-        <v>131433</v>
+        <v>162190</v>
       </c>
       <c r="C240" t="s">
         <v>1954</v>
@@ -24086,7 +24086,7 @@
         <v>3951</v>
       </c>
       <c r="B241" t="n">
-        <v>131434</v>
+        <v>162191</v>
       </c>
       <c r="C241" t="s">
         <v>1961</v>
@@ -24161,7 +24161,7 @@
         <v>3951</v>
       </c>
       <c r="B242" t="n">
-        <v>131435</v>
+        <v>162192</v>
       </c>
       <c r="C242" t="s">
         <v>1968</v>
@@ -24236,7 +24236,7 @@
         <v>3951</v>
       </c>
       <c r="B243" t="n">
-        <v>131436</v>
+        <v>162193</v>
       </c>
       <c r="C243" t="s">
         <v>1975</v>
@@ -24311,7 +24311,7 @@
         <v>3951</v>
       </c>
       <c r="B244" t="n">
-        <v>131437</v>
+        <v>162194</v>
       </c>
       <c r="C244" t="s">
         <v>1982</v>
@@ -24386,7 +24386,7 @@
         <v>3951</v>
       </c>
       <c r="B245" t="n">
-        <v>131438</v>
+        <v>162195</v>
       </c>
       <c r="C245" t="s">
         <v>1988</v>
@@ -24461,7 +24461,7 @@
         <v>3951</v>
       </c>
       <c r="B246" t="n">
-        <v>131439</v>
+        <v>162196</v>
       </c>
       <c r="C246" t="s">
         <v>1995</v>
@@ -24536,7 +24536,7 @@
         <v>3951</v>
       </c>
       <c r="B247" t="n">
-        <v>131440</v>
+        <v>162197</v>
       </c>
       <c r="C247" t="s">
         <v>2001</v>
@@ -24611,7 +24611,7 @@
         <v>3951</v>
       </c>
       <c r="B248" t="n">
-        <v>131441</v>
+        <v>162198</v>
       </c>
       <c r="C248" t="s">
         <v>2008</v>
@@ -24686,7 +24686,7 @@
         <v>3951</v>
       </c>
       <c r="B249" t="n">
-        <v>131442</v>
+        <v>162199</v>
       </c>
       <c r="C249" t="s">
         <v>2015</v>
@@ -24759,7 +24759,7 @@
         <v>3951</v>
       </c>
       <c r="B250" t="n">
-        <v>131443</v>
+        <v>162200</v>
       </c>
       <c r="C250" t="s">
         <v>2022</v>
@@ -24834,7 +24834,7 @@
         <v>3951</v>
       </c>
       <c r="B251" t="n">
-        <v>131444</v>
+        <v>162201</v>
       </c>
       <c r="C251" t="s">
         <v>2029</v>
@@ -24909,7 +24909,7 @@
         <v>3951</v>
       </c>
       <c r="B252" t="n">
-        <v>131445</v>
+        <v>162202</v>
       </c>
       <c r="C252" t="s">
         <v>2038</v>
@@ -24972,7 +24972,7 @@
         <v>3951</v>
       </c>
       <c r="B253" t="n">
-        <v>131446</v>
+        <v>162203</v>
       </c>
       <c r="C253" t="s">
         <v>2044</v>
@@ -25047,7 +25047,7 @@
         <v>3951</v>
       </c>
       <c r="B254" t="n">
-        <v>131447</v>
+        <v>162204</v>
       </c>
       <c r="C254" t="s">
         <v>2054</v>
@@ -25122,7 +25122,7 @@
         <v>3951</v>
       </c>
       <c r="B255" t="n">
-        <v>131448</v>
+        <v>162205</v>
       </c>
       <c r="C255" t="s">
         <v>2062</v>
@@ -25197,7 +25197,7 @@
         <v>3951</v>
       </c>
       <c r="B256" t="n">
-        <v>131449</v>
+        <v>162206</v>
       </c>
       <c r="C256" t="s">
         <v>2069</v>
@@ -25272,7 +25272,7 @@
         <v>3951</v>
       </c>
       <c r="B257" t="n">
-        <v>131450</v>
+        <v>162207</v>
       </c>
       <c r="C257" t="s">
         <v>2077</v>
@@ -25347,7 +25347,7 @@
         <v>3951</v>
       </c>
       <c r="B258" t="n">
-        <v>131451</v>
+        <v>162208</v>
       </c>
       <c r="C258" t="s">
         <v>2084</v>
@@ -25422,7 +25422,7 @@
         <v>3951</v>
       </c>
       <c r="B259" t="n">
-        <v>131452</v>
+        <v>162209</v>
       </c>
       <c r="C259" t="s">
         <v>2092</v>
@@ -25497,7 +25497,7 @@
         <v>3951</v>
       </c>
       <c r="B260" t="n">
-        <v>131453</v>
+        <v>162210</v>
       </c>
       <c r="C260" t="s">
         <v>2100</v>
@@ -25558,7 +25558,7 @@
         <v>3951</v>
       </c>
       <c r="B261" t="n">
-        <v>131454</v>
+        <v>162211</v>
       </c>
       <c r="C261" t="s">
         <v>2107</v>
@@ -25633,7 +25633,7 @@
         <v>3951</v>
       </c>
       <c r="B262" t="n">
-        <v>131455</v>
+        <v>162212</v>
       </c>
       <c r="C262" t="s">
         <v>2115</v>
